--- a/param/mapping.xlsx
+++ b/param/mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leung\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohho/Codes/AI/David/loop/param/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58B367A-F558-4CCA-B744-4F76D284E2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F7A74B-6DD7-6C46-AB37-BD32FD9112D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA162720-EDF9-4695-8F70-130976C08B68}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EA162720-EDF9-4695-8F70-130976C08B68}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2565" uniqueCount="1856">
   <si>
     <t>001-01.txt:&lt;摘要&gt; 闡述透過不執著停留與尋求、滅盡感受思想以達寂靜，並實踐五法斷棄與覺醒，使心靈清淨而超越生死。 &lt;/摘要&gt;</t>
   </si>
@@ -5602,13 +5602,19 @@
   </si>
   <si>
     <t xml:space="preserve">5.5.2 弘法者的戒德與願行  </t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>section title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5620,6 +5626,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -5648,7 +5655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5662,6 +5669,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5999,19 +6009,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E730F1E0-3C86-4714-ADFC-CBDB86D71A5B}">
   <dimension ref="A1:D797"/>
   <sheetViews>
-    <sheetView topLeftCell="A775" workbookViewId="0">
-      <selection activeCell="A792" sqref="A792:A797"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="151" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1266</v>
       </c>
@@ -6025,7 +6035,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>502</v>
       </c>
@@ -6039,7 +6049,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>706</v>
       </c>
@@ -6053,7 +6063,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>723</v>
       </c>
@@ -6067,7 +6077,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>724</v>
       </c>
@@ -6081,7 +6091,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>734</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>735</v>
       </c>
@@ -6109,7 +6119,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>736</v>
       </c>
@@ -6123,7 +6133,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>737</v>
       </c>
@@ -6137,7 +6147,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>738</v>
       </c>
@@ -6151,7 +6161,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>739</v>
       </c>
@@ -6165,7 +6175,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>740</v>
       </c>
@@ -6179,7 +6189,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>741</v>
       </c>
@@ -6193,7 +6203,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>742</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>743</v>
       </c>
@@ -6221,7 +6231,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>721</v>
       </c>
@@ -6235,7 +6245,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>722</v>
       </c>
@@ -6249,7 +6259,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -6263,7 +6273,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>154</v>
       </c>
@@ -6277,7 +6287,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -6291,7 +6301,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -6305,7 +6315,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>162</v>
       </c>
@@ -6319,7 +6329,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>164</v>
       </c>
@@ -6333,7 +6343,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>168</v>
       </c>
@@ -6347,7 +6357,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -6361,7 +6371,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -6375,7 +6385,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -6389,7 +6399,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>142</v>
       </c>
@@ -6403,7 +6413,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -6417,7 +6427,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>144</v>
       </c>
@@ -6431,7 +6441,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -6445,7 +6455,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -6459,7 +6469,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -6473,7 +6483,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -6487,7 +6497,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -6501,7 +6511,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -6515,7 +6525,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>153</v>
       </c>
@@ -6529,7 +6539,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -6543,7 +6553,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -6557,7 +6567,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -6571,7 +6581,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>170</v>
       </c>
@@ -6585,7 +6595,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -6599,7 +6609,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -6613,7 +6623,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>182</v>
       </c>
@@ -6627,7 +6637,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>183</v>
       </c>
@@ -6641,7 +6651,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>184</v>
       </c>
@@ -6655,7 +6665,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>185</v>
       </c>
@@ -6669,7 +6679,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -6683,7 +6693,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>202</v>
       </c>
@@ -6697,7 +6707,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>207</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>321</v>
       </c>
@@ -6725,7 +6735,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>407</v>
       </c>
@@ -6739,7 +6749,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>554</v>
       </c>
@@ -6753,7 +6763,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>505</v>
       </c>
@@ -6767,7 +6777,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -6781,7 +6791,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>450</v>
       </c>
@@ -6795,7 +6805,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>542</v>
       </c>
@@ -6809,7 +6819,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -6823,7 +6833,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>260</v>
       </c>
@@ -6837,7 +6847,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>325</v>
       </c>
@@ -6851,7 +6861,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>327</v>
       </c>
@@ -6865,7 +6875,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>392</v>
       </c>
@@ -6879,7 +6889,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>404</v>
       </c>
@@ -6893,7 +6903,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -6907,7 +6917,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>66</v>
       </c>
@@ -6921,7 +6931,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>362</v>
       </c>
@@ -6935,7 +6945,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>535</v>
       </c>
@@ -6949,7 +6959,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>195</v>
       </c>
@@ -6963,7 +6973,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>205</v>
       </c>
@@ -6977,7 +6987,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>272</v>
       </c>
@@ -6991,7 +7001,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>279</v>
       </c>
@@ -7005,7 +7015,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>280</v>
       </c>
@@ -7019,7 +7029,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>281</v>
       </c>
@@ -7033,7 +7043,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>286</v>
       </c>
@@ -7047,7 +7057,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>786</v>
       </c>
@@ -7061,7 +7071,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>292</v>
       </c>
@@ -7075,7 +7085,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>298</v>
       </c>
@@ -7089,7 +7099,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -7103,7 +7113,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>305</v>
       </c>
@@ -7117,7 +7127,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>307</v>
       </c>
@@ -7131,7 +7141,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>312</v>
       </c>
@@ -7145,7 +7155,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>318</v>
       </c>
@@ -7159,7 +7169,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>324</v>
       </c>
@@ -7173,7 +7183,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>326</v>
       </c>
@@ -7187,7 +7197,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>328</v>
       </c>
@@ -7201,7 +7211,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>329</v>
       </c>
@@ -7215,7 +7225,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>335</v>
       </c>
@@ -7229,7 +7239,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>336</v>
       </c>
@@ -7243,7 +7253,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>346</v>
       </c>
@@ -7257,7 +7267,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>347</v>
       </c>
@@ -7271,7 +7281,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>350</v>
       </c>
@@ -7285,7 +7295,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>196</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>274</v>
       </c>
@@ -7313,7 +7323,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>277</v>
       </c>
@@ -7327,7 +7337,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>278</v>
       </c>
@@ -7341,7 +7351,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>283</v>
       </c>
@@ -7355,7 +7365,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>284</v>
       </c>
@@ -7369,7 +7379,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>285</v>
       </c>
@@ -7383,7 +7393,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>785</v>
       </c>
@@ -7397,7 +7407,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>291</v>
       </c>
@@ -7411,7 +7421,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>296</v>
       </c>
@@ -7425,7 +7435,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>306</v>
       </c>
@@ -7439,7 +7449,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>310</v>
       </c>
@@ -7453,7 +7463,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>314</v>
       </c>
@@ -7467,7 +7477,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>316</v>
       </c>
@@ -7481,7 +7491,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>320</v>
       </c>
@@ -7495,7 +7505,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>322</v>
       </c>
@@ -7509,7 +7519,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>323</v>
       </c>
@@ -7523,7 +7533,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>339</v>
       </c>
@@ -7537,7 +7547,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>340</v>
       </c>
@@ -7551,7 +7561,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>341</v>
       </c>
@@ -7565,7 +7575,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>344</v>
       </c>
@@ -7579,7 +7589,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>345</v>
       </c>
@@ -7593,7 +7603,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>348</v>
       </c>
@@ -7607,7 +7617,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>349</v>
       </c>
@@ -7621,7 +7631,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>351</v>
       </c>
@@ -7635,7 +7645,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>352</v>
       </c>
@@ -7649,7 +7659,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>353</v>
       </c>
@@ -7663,7 +7673,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>788</v>
       </c>
@@ -7677,7 +7687,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>354</v>
       </c>
@@ -7691,7 +7701,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>355</v>
       </c>
@@ -7705,7 +7715,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>356</v>
       </c>
@@ -7719,7 +7729,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>357</v>
       </c>
@@ -7733,7 +7743,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>358</v>
       </c>
@@ -7747,7 +7757,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>359</v>
       </c>
@@ -7761,7 +7771,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>360</v>
       </c>
@@ -7775,7 +7785,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>398</v>
       </c>
@@ -7789,7 +7799,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>518</v>
       </c>
@@ -7803,7 +7813,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>784</v>
       </c>
@@ -7817,7 +7827,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>382</v>
       </c>
@@ -7831,7 +7841,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>397</v>
       </c>
@@ -7845,7 +7855,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>403</v>
       </c>
@@ -7859,7 +7869,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>405</v>
       </c>
@@ -7873,7 +7883,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>406</v>
       </c>
@@ -7887,7 +7897,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>441</v>
       </c>
@@ -7901,7 +7911,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>455</v>
       </c>
@@ -7915,7 +7925,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>456</v>
       </c>
@@ -7929,7 +7939,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>457</v>
       </c>
@@ -7943,7 +7953,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>465</v>
       </c>
@@ -7957,7 +7967,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>517</v>
       </c>
@@ -7971,7 +7981,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>627</v>
       </c>
@@ -7985,7 +7995,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>158</v>
       </c>
@@ -7999,7 +8009,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>159</v>
       </c>
@@ -8013,7 +8023,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>160</v>
       </c>
@@ -8027,7 +8037,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>177</v>
       </c>
@@ -8041,7 +8051,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>179</v>
       </c>
@@ -8055,7 +8065,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>210</v>
       </c>
@@ -8069,7 +8079,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>408</v>
       </c>
@@ -8083,7 +8093,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>437</v>
       </c>
@@ -8097,7 +8107,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>438</v>
       </c>
@@ -8111,7 +8121,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>466</v>
       </c>
@@ -8125,7 +8135,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>467</v>
       </c>
@@ -8139,7 +8149,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>487</v>
       </c>
@@ -8153,7 +8163,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>488</v>
       </c>
@@ -8167,7 +8177,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>490</v>
       </c>
@@ -8181,7 +8191,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>495</v>
       </c>
@@ -8195,7 +8205,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>172</v>
       </c>
@@ -8209,7 +8219,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>173</v>
       </c>
@@ -8223,7 +8233,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>174</v>
       </c>
@@ -8237,7 +8247,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>192</v>
       </c>
@@ -8251,7 +8261,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>193</v>
       </c>
@@ -8265,7 +8275,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>297</v>
       </c>
@@ -8279,7 +8289,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>412</v>
       </c>
@@ -8293,7 +8303,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>413</v>
       </c>
@@ -8307,7 +8317,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>464</v>
       </c>
@@ -8321,7 +8331,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>167</v>
       </c>
@@ -8335,7 +8345,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>213</v>
       </c>
@@ -8349,7 +8359,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>214</v>
       </c>
@@ -8363,7 +8373,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>215</v>
       </c>
@@ -8377,7 +8387,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>216</v>
       </c>
@@ -8391,7 +8401,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>217</v>
       </c>
@@ -8405,7 +8415,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>218</v>
       </c>
@@ -8419,7 +8429,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>219</v>
       </c>
@@ -8433,7 +8443,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>220</v>
       </c>
@@ -8447,7 +8457,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>221</v>
       </c>
@@ -8461,7 +8471,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>222</v>
       </c>
@@ -8475,7 +8485,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>223</v>
       </c>
@@ -8489,7 +8499,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>461</v>
       </c>
@@ -8503,7 +8513,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>478</v>
       </c>
@@ -8517,7 +8527,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>116</v>
       </c>
@@ -8531,7 +8541,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>145</v>
       </c>
@@ -8545,7 +8555,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>146</v>
       </c>
@@ -8559,7 +8569,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>197</v>
       </c>
@@ -8573,7 +8583,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>198</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -8601,7 +8611,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>48</v>
       </c>
@@ -8615,7 +8625,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>50</v>
       </c>
@@ -8629,7 +8639,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>137</v>
       </c>
@@ -8643,7 +8653,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>171</v>
       </c>
@@ -8657,7 +8667,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>443</v>
       </c>
@@ -8671,7 +8681,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>494</v>
       </c>
@@ -8685,7 +8695,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -8699,7 +8709,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>246</v>
       </c>
@@ -8713,7 +8723,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>365</v>
       </c>
@@ -8727,7 +8737,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>366</v>
       </c>
@@ -8741,7 +8751,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>367</v>
       </c>
@@ -8755,7 +8765,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>368</v>
       </c>
@@ -8769,7 +8779,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>15</v>
       </c>
@@ -8783,7 +8793,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>40</v>
       </c>
@@ -8797,7 +8807,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>56</v>
       </c>
@@ -8811,7 +8821,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>118</v>
       </c>
@@ -8825,7 +8835,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>178</v>
       </c>
@@ -8839,7 +8849,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>315</v>
       </c>
@@ -8853,7 +8863,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>330</v>
       </c>
@@ -8867,7 +8877,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>395</v>
       </c>
@@ -8881,7 +8891,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>396</v>
       </c>
@@ -8895,7 +8905,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>423</v>
       </c>
@@ -8909,7 +8919,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>430</v>
       </c>
@@ -8923,7 +8933,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>454</v>
       </c>
@@ -8937,7 +8947,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>462</v>
       </c>
@@ -8951,7 +8961,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>463</v>
       </c>
@@ -8965,7 +8975,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>516</v>
       </c>
@@ -8979,7 +8989,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>534</v>
       </c>
@@ -8993,7 +9003,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -9007,7 +9017,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>38</v>
       </c>
@@ -9021,7 +9031,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>67</v>
       </c>
@@ -9035,7 +9045,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>313</v>
       </c>
@@ -9049,7 +9059,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>331</v>
       </c>
@@ -9063,7 +9073,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>342</v>
       </c>
@@ -9077,7 +9087,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>787</v>
       </c>
@@ -9091,7 +9101,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>410</v>
       </c>
@@ -9105,7 +9115,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>411</v>
       </c>
@@ -9119,7 +9129,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>421</v>
       </c>
@@ -9133,7 +9143,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>424</v>
       </c>
@@ -9147,7 +9157,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>427</v>
       </c>
@@ -9161,7 +9171,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>431</v>
       </c>
@@ -9175,7 +9185,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>432</v>
       </c>
@@ -9189,7 +9199,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>439</v>
       </c>
@@ -9203,7 +9213,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -9217,7 +9227,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>92</v>
       </c>
@@ -9231,7 +9241,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>224</v>
       </c>
@@ -9245,7 +9255,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>225</v>
       </c>
@@ -9259,7 +9269,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>425</v>
       </c>
@@ -9273,7 +9283,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>76</v>
       </c>
@@ -9287,7 +9297,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>77</v>
       </c>
@@ -9301,7 +9311,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>113</v>
       </c>
@@ -9315,7 +9325,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>237</v>
       </c>
@@ -9329,7 +9339,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>317</v>
       </c>
@@ -9343,7 +9353,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>369</v>
       </c>
@@ -9357,7 +9367,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>544</v>
       </c>
@@ -9371,7 +9381,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>789</v>
       </c>
@@ -9385,7 +9395,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>545</v>
       </c>
@@ -9399,7 +9409,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>546</v>
       </c>
@@ -9413,7 +9423,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>547</v>
       </c>
@@ -9427,7 +9437,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>548</v>
       </c>
@@ -9441,7 +9451,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>549</v>
       </c>
@@ -9455,7 +9465,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>550</v>
       </c>
@@ -9469,7 +9479,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>551</v>
       </c>
@@ -9483,7 +9493,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>552</v>
       </c>
@@ -9497,7 +9507,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>553</v>
       </c>
@@ -9511,7 +9521,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -9525,7 +9535,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>9</v>
       </c>
@@ -9539,7 +9549,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>130</v>
       </c>
@@ -9553,7 +9563,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>136</v>
       </c>
@@ -9567,7 +9577,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>525</v>
       </c>
@@ -9581,7 +9591,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>1</v>
       </c>
@@ -9595,7 +9605,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>61</v>
       </c>
@@ -9609,7 +9619,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>199</v>
       </c>
@@ -9623,7 +9633,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>334</v>
       </c>
@@ -9637,7 +9647,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>747</v>
       </c>
@@ -9651,7 +9661,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>748</v>
       </c>
@@ -9665,7 +9675,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>749</v>
       </c>
@@ -9679,7 +9689,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>750</v>
       </c>
@@ -9693,7 +9703,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>751</v>
       </c>
@@ -9707,7 +9717,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>752</v>
       </c>
@@ -9721,7 +9731,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>753</v>
       </c>
@@ -9735,7 +9745,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>754</v>
       </c>
@@ -9749,7 +9759,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>755</v>
       </c>
@@ -9763,7 +9773,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>756</v>
       </c>
@@ -9777,7 +9787,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>757</v>
       </c>
@@ -9791,7 +9801,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>758</v>
       </c>
@@ -9805,7 +9815,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>759</v>
       </c>
@@ -9819,7 +9829,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>760</v>
       </c>
@@ -9833,7 +9843,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>761</v>
       </c>
@@ -9847,7 +9857,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>762</v>
       </c>
@@ -9861,7 +9871,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>763</v>
       </c>
@@ -9875,7 +9885,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>764</v>
       </c>
@@ -9889,7 +9899,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>765</v>
       </c>
@@ -9903,7 +9913,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>766</v>
       </c>
@@ -9917,7 +9927,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>767</v>
       </c>
@@ -9931,7 +9941,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>768</v>
       </c>
@@ -9945,7 +9955,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>769</v>
       </c>
@@ -9959,7 +9969,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>770</v>
       </c>
@@ -9973,7 +9983,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>771</v>
       </c>
@@ -9987,7 +9997,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>772</v>
       </c>
@@ -10001,7 +10011,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>773</v>
       </c>
@@ -10015,7 +10025,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>774</v>
       </c>
@@ -10029,7 +10039,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>775</v>
       </c>
@@ -10043,7 +10053,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>776</v>
       </c>
@@ -10057,7 +10067,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>777</v>
       </c>
@@ -10071,7 +10081,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>778</v>
       </c>
@@ -10085,7 +10095,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>779</v>
       </c>
@@ -10099,7 +10109,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>780</v>
       </c>
@@ -10113,7 +10123,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>783</v>
       </c>
@@ -10127,7 +10137,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>165</v>
       </c>
@@ -10141,7 +10151,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>186</v>
       </c>
@@ -10155,7 +10165,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>187</v>
       </c>
@@ -10169,7 +10179,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>188</v>
       </c>
@@ -10183,7 +10193,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>189</v>
       </c>
@@ -10197,7 +10207,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>190</v>
       </c>
@@ -10211,7 +10221,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>191</v>
       </c>
@@ -10225,7 +10235,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>194</v>
       </c>
@@ -10239,7 +10249,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>288</v>
       </c>
@@ -10253,7 +10263,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>303</v>
       </c>
@@ -10267,7 +10277,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>304</v>
       </c>
@@ -10281,7 +10291,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>375</v>
       </c>
@@ -10295,7 +10305,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>376</v>
       </c>
@@ -10309,7 +10319,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>377</v>
       </c>
@@ -10323,7 +10333,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>378</v>
       </c>
@@ -10337,7 +10347,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>379</v>
       </c>
@@ -10351,7 +10361,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>380</v>
       </c>
@@ -10365,7 +10375,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>381</v>
       </c>
@@ -10379,7 +10389,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>393</v>
       </c>
@@ -10393,7 +10403,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>400</v>
       </c>
@@ -10407,7 +10417,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>401</v>
       </c>
@@ -10421,7 +10431,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>402</v>
       </c>
@@ -10435,7 +10445,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>422</v>
       </c>
@@ -10449,7 +10459,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>499</v>
       </c>
@@ -10463,7 +10473,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>16</v>
       </c>
@@ -10477,7 +10487,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>17</v>
       </c>
@@ -10491,7 +10501,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>18</v>
       </c>
@@ -10505,7 +10515,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>80</v>
       </c>
@@ -10519,7 +10529,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>91</v>
       </c>
@@ -10533,7 +10543,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>100</v>
       </c>
@@ -10547,7 +10557,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>127</v>
       </c>
@@ -10561,7 +10571,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>156</v>
       </c>
@@ -10575,7 +10585,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>236</v>
       </c>
@@ -10589,7 +10599,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>263</v>
       </c>
@@ -10603,7 +10613,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>299</v>
       </c>
@@ -10617,7 +10627,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -10631,7 +10641,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>428</v>
       </c>
@@ -10645,7 +10655,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>449</v>
       </c>
@@ -10659,7 +10669,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>468</v>
       </c>
@@ -10673,7 +10683,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>469</v>
       </c>
@@ -10687,7 +10697,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>498</v>
       </c>
@@ -10701,7 +10711,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>504</v>
       </c>
@@ -10715,7 +10725,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>556</v>
       </c>
@@ -10729,7 +10739,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>557</v>
       </c>
@@ -10743,7 +10753,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>558</v>
       </c>
@@ -10757,7 +10767,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>559</v>
       </c>
@@ -10771,7 +10781,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>560</v>
       </c>
@@ -10785,7 +10795,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>561</v>
       </c>
@@ -10799,7 +10809,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>562</v>
       </c>
@@ -10813,7 +10823,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>563</v>
       </c>
@@ -10827,7 +10837,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>564</v>
       </c>
@@ -10841,7 +10851,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>565</v>
       </c>
@@ -10855,7 +10865,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>566</v>
       </c>
@@ -10869,7 +10879,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>567</v>
       </c>
@@ -10883,7 +10893,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>568</v>
       </c>
@@ -10897,7 +10907,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>569</v>
       </c>
@@ -10911,7 +10921,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>570</v>
       </c>
@@ -10925,7 +10935,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>571</v>
       </c>
@@ -10939,7 +10949,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>572</v>
       </c>
@@ -10953,7 +10963,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>573</v>
       </c>
@@ -10967,7 +10977,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>574</v>
       </c>
@@ -10981,7 +10991,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>575</v>
       </c>
@@ -10995,7 +11005,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>576</v>
       </c>
@@ -11009,7 +11019,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>106</v>
       </c>
@@ -11023,7 +11033,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>311</v>
       </c>
@@ -11037,7 +11047,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>477</v>
       </c>
@@ -11051,7 +11061,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>485</v>
       </c>
@@ -11065,7 +11075,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>486</v>
       </c>
@@ -11079,7 +11089,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>600</v>
       </c>
@@ -11093,7 +11103,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>601</v>
       </c>
@@ -11107,7 +11117,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>602</v>
       </c>
@@ -11121,7 +11131,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>603</v>
       </c>
@@ -11135,7 +11145,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>604</v>
       </c>
@@ -11149,7 +11159,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>605</v>
       </c>
@@ -11163,7 +11173,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>606</v>
       </c>
@@ -11177,7 +11187,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>607</v>
       </c>
@@ -11191,7 +11201,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>608</v>
       </c>
@@ -11205,7 +11215,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>609</v>
       </c>
@@ -11219,7 +11229,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>610</v>
       </c>
@@ -11233,7 +11243,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>611</v>
       </c>
@@ -11247,7 +11257,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>612</v>
       </c>
@@ -11261,7 +11271,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>613</v>
       </c>
@@ -11275,7 +11285,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>614</v>
       </c>
@@ -11289,7 +11299,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>615</v>
       </c>
@@ -11303,7 +11313,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>616</v>
       </c>
@@ -11317,7 +11327,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>617</v>
       </c>
@@ -11331,7 +11341,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>618</v>
       </c>
@@ -11345,7 +11355,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>619</v>
       </c>
@@ -11359,7 +11369,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>620</v>
       </c>
@@ -11373,7 +11383,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>621</v>
       </c>
@@ -11387,7 +11397,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>622</v>
       </c>
@@ -11401,7 +11411,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>623</v>
       </c>
@@ -11415,7 +11425,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>677</v>
       </c>
@@ -11429,7 +11439,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>678</v>
       </c>
@@ -11443,7 +11453,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>679</v>
       </c>
@@ -11457,7 +11467,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>680</v>
       </c>
@@ -11471,7 +11481,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>681</v>
       </c>
@@ -11485,7 +11495,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>682</v>
       </c>
@@ -11499,7 +11509,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>683</v>
       </c>
@@ -11513,7 +11523,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>684</v>
       </c>
@@ -11527,7 +11537,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>685</v>
       </c>
@@ -11541,7 +11551,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>686</v>
       </c>
@@ -11555,7 +11565,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>687</v>
       </c>
@@ -11569,7 +11579,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>75</v>
       </c>
@@ -11583,7 +11593,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>128</v>
       </c>
@@ -11597,7 +11607,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>129</v>
       </c>
@@ -11611,7 +11621,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>624</v>
       </c>
@@ -11625,7 +11635,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>793</v>
       </c>
@@ -11639,7 +11649,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>625</v>
       </c>
@@ -11653,7 +11663,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>628</v>
       </c>
@@ -11667,7 +11677,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>629</v>
       </c>
@@ -11681,7 +11691,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>630</v>
       </c>
@@ -11695,7 +11705,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>631</v>
       </c>
@@ -11709,7 +11719,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>632</v>
       </c>
@@ -11723,7 +11733,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>633</v>
       </c>
@@ -11737,7 +11747,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>634</v>
       </c>
@@ -11751,7 +11761,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>635</v>
       </c>
@@ -11765,7 +11775,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>795</v>
       </c>
@@ -11779,7 +11789,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>636</v>
       </c>
@@ -11793,7 +11803,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>637</v>
       </c>
@@ -11807,7 +11817,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>638</v>
       </c>
@@ -11821,7 +11831,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>639</v>
       </c>
@@ -11835,7 +11845,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>640</v>
       </c>
@@ -11849,7 +11859,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>641</v>
       </c>
@@ -11863,7 +11873,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>642</v>
       </c>
@@ -11877,7 +11887,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>643</v>
       </c>
@@ -11891,7 +11901,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>644</v>
       </c>
@@ -11905,7 +11915,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>645</v>
       </c>
@@ -11919,7 +11929,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>646</v>
       </c>
@@ -11933,7 +11943,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>647</v>
       </c>
@@ -11947,7 +11957,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>543</v>
       </c>
@@ -11961,7 +11971,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>579</v>
       </c>
@@ -11975,7 +11985,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>790</v>
       </c>
@@ -11989,7 +11999,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>580</v>
       </c>
@@ -12003,7 +12013,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>581</v>
       </c>
@@ -12017,7 +12027,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>582</v>
       </c>
@@ -12031,7 +12041,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>583</v>
       </c>
@@ -12045,7 +12055,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>584</v>
       </c>
@@ -12059,7 +12069,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>585</v>
       </c>
@@ -12073,7 +12083,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>586</v>
       </c>
@@ -12087,7 +12097,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>587</v>
       </c>
@@ -12101,7 +12111,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>588</v>
       </c>
@@ -12115,7 +12125,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>791</v>
       </c>
@@ -12129,7 +12139,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>589</v>
       </c>
@@ -12143,7 +12153,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>590</v>
       </c>
@@ -12157,7 +12167,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>591</v>
       </c>
@@ -12171,7 +12181,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>592</v>
       </c>
@@ -12185,7 +12195,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>593</v>
       </c>
@@ -12199,7 +12209,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>594</v>
       </c>
@@ -12213,7 +12223,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>595</v>
       </c>
@@ -12227,7 +12237,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>596</v>
       </c>
@@ -12241,7 +12251,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>597</v>
       </c>
@@ -12255,7 +12265,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>598</v>
       </c>
@@ -12269,7 +12279,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>599</v>
       </c>
@@ -12283,7 +12293,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>648</v>
       </c>
@@ -12297,7 +12307,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>649</v>
       </c>
@@ -12311,7 +12321,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>650</v>
       </c>
@@ -12325,7 +12335,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>651</v>
       </c>
@@ -12339,7 +12349,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>652</v>
       </c>
@@ -12353,7 +12363,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>653</v>
       </c>
@@ -12367,7 +12377,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>654</v>
       </c>
@@ -12381,7 +12391,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>655</v>
       </c>
@@ -12395,7 +12405,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>656</v>
       </c>
@@ -12409,7 +12419,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>657</v>
       </c>
@@ -12423,7 +12433,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>658</v>
       </c>
@@ -12437,7 +12447,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>659</v>
       </c>
@@ -12451,7 +12461,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>660</v>
       </c>
@@ -12465,7 +12475,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>661</v>
       </c>
@@ -12479,7 +12489,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>662</v>
       </c>
@@ -12493,7 +12503,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>663</v>
       </c>
@@ -12507,7 +12517,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>664</v>
       </c>
@@ -12521,7 +12531,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>665</v>
       </c>
@@ -12535,7 +12545,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>666</v>
       </c>
@@ -12549,7 +12559,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>667</v>
       </c>
@@ -12563,7 +12573,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>676</v>
       </c>
@@ -12577,7 +12587,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>64</v>
       </c>
@@ -12591,7 +12601,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>243</v>
       </c>
@@ -12605,7 +12615,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>244</v>
       </c>
@@ -12619,7 +12629,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>282</v>
       </c>
@@ -12633,7 +12643,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>287</v>
       </c>
@@ -12647,7 +12657,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>289</v>
       </c>
@@ -12661,7 +12671,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>290</v>
       </c>
@@ -12675,7 +12685,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>294</v>
       </c>
@@ -12689,7 +12699,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>295</v>
       </c>
@@ -12703,7 +12713,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>308</v>
       </c>
@@ -12717,7 +12727,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>333</v>
       </c>
@@ -12731,7 +12741,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>337</v>
       </c>
@@ -12745,7 +12755,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>338</v>
       </c>
@@ -12759,7 +12769,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>374</v>
       </c>
@@ -12773,7 +12783,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>434</v>
       </c>
@@ -12787,7 +12797,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>41</v>
       </c>
@@ -12801,7 +12811,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>115</v>
       </c>
@@ -12815,7 +12825,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>200</v>
       </c>
@@ -12829,7 +12839,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>204</v>
       </c>
@@ -12843,7 +12853,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>363</v>
       </c>
@@ -12857,7 +12867,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>383</v>
       </c>
@@ -12871,7 +12881,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>384</v>
       </c>
@@ -12885,7 +12895,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>385</v>
       </c>
@@ -12899,7 +12909,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>386</v>
       </c>
@@ -12913,7 +12923,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>387</v>
       </c>
@@ -12927,7 +12937,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>388</v>
       </c>
@@ -12941,7 +12951,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>389</v>
       </c>
@@ -12955,7 +12965,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>390</v>
       </c>
@@ -12969,7 +12979,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>391</v>
       </c>
@@ -12983,7 +12993,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>394</v>
       </c>
@@ -12997,7 +13007,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>399</v>
       </c>
@@ -13011,7 +13021,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>414</v>
       </c>
@@ -13025,7 +13035,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>415</v>
       </c>
@@ -13039,7 +13049,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>416</v>
       </c>
@@ -13053,7 +13063,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>417</v>
       </c>
@@ -13067,7 +13077,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>418</v>
       </c>
@@ -13081,7 +13091,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>426</v>
       </c>
@@ -13095,7 +13105,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>440</v>
       </c>
@@ -13109,7 +13119,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>442</v>
       </c>
@@ -13123,7 +13133,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>448</v>
       </c>
@@ -13137,7 +13147,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>458</v>
       </c>
@@ -13151,7 +13161,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>459</v>
       </c>
@@ -13165,7 +13175,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>460</v>
       </c>
@@ -13179,7 +13189,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>470</v>
       </c>
@@ -13193,7 +13203,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>473</v>
       </c>
@@ -13207,7 +13217,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>476</v>
       </c>
@@ -13221,7 +13231,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>166</v>
       </c>
@@ -13235,7 +13245,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>319</v>
       </c>
@@ -13249,7 +13259,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>479</v>
       </c>
@@ -13263,7 +13273,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>480</v>
       </c>
@@ -13277,7 +13287,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>481</v>
       </c>
@@ -13291,7 +13301,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>482</v>
       </c>
@@ -13305,7 +13315,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>483</v>
       </c>
@@ -13319,7 +13329,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>484</v>
       </c>
@@ -13333,7 +13343,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>489</v>
       </c>
@@ -13347,7 +13357,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>491</v>
       </c>
@@ -13361,7 +13371,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>496</v>
       </c>
@@ -13375,7 +13385,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>497</v>
       </c>
@@ -13389,7 +13399,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>794</v>
       </c>
@@ -13403,7 +13413,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>689</v>
       </c>
@@ -13417,7 +13427,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>690</v>
       </c>
@@ -13431,7 +13441,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>691</v>
       </c>
@@ -13445,7 +13455,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>692</v>
       </c>
@@ -13459,7 +13469,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>693</v>
       </c>
@@ -13473,7 +13483,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>694</v>
       </c>
@@ -13487,7 +13497,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>695</v>
       </c>
@@ -13501,7 +13511,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>696</v>
       </c>
@@ -13515,7 +13525,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>697</v>
       </c>
@@ -13529,7 +13539,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>698</v>
       </c>
@@ -13543,7 +13553,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>699</v>
       </c>
@@ -13557,7 +13567,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>700</v>
       </c>
@@ -13571,7 +13581,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>701</v>
       </c>
@@ -13585,7 +13595,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>702</v>
       </c>
@@ -13599,7 +13609,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>703</v>
       </c>
@@ -13613,7 +13623,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>704</v>
       </c>
@@ -13627,7 +13637,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>705</v>
       </c>
@@ -13641,7 +13651,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>259</v>
       </c>
@@ -13655,7 +13665,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>262</v>
       </c>
@@ -13669,7 +13679,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>275</v>
       </c>
@@ -13683,7 +13693,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>276</v>
       </c>
@@ -13697,7 +13707,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>492</v>
       </c>
@@ -13711,7 +13721,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>506</v>
       </c>
@@ -13725,7 +13735,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>507</v>
       </c>
@@ -13739,7 +13749,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>508</v>
       </c>
@@ -13753,7 +13763,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>509</v>
       </c>
@@ -13767,7 +13777,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>510</v>
       </c>
@@ -13781,7 +13791,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>511</v>
       </c>
@@ -13795,7 +13805,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>512</v>
       </c>
@@ -13809,7 +13819,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>513</v>
       </c>
@@ -13823,7 +13833,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>688</v>
       </c>
@@ -13837,7 +13847,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>98</v>
       </c>
@@ -13851,7 +13861,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>364</v>
       </c>
@@ -13865,7 +13875,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>370</v>
       </c>
@@ -13879,7 +13889,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>371</v>
       </c>
@@ -13893,7 +13903,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>372</v>
       </c>
@@ -13907,7 +13917,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>373</v>
       </c>
@@ -13921,7 +13931,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>419</v>
       </c>
@@ -13935,7 +13945,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>420</v>
       </c>
@@ -13949,7 +13959,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="568" spans="1:4">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>514</v>
       </c>
@@ -13963,7 +13973,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>0</v>
       </c>
@@ -13977,7 +13987,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="570" spans="1:4">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>7</v>
       </c>
@@ -13991,7 +14001,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="571" spans="1:4">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -14005,7 +14015,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="572" spans="1:4">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>30</v>
       </c>
@@ -14019,7 +14029,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="573" spans="1:4">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>51</v>
       </c>
@@ -14033,7 +14043,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="574" spans="1:4">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>81</v>
       </c>
@@ -14047,7 +14057,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="575" spans="1:4">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>96</v>
       </c>
@@ -14061,7 +14071,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>97</v>
       </c>
@@ -14075,7 +14085,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="577" spans="1:4">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>103</v>
       </c>
@@ -14089,7 +14099,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="578" spans="1:4">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>104</v>
       </c>
@@ -14103,7 +14113,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="579" spans="1:4">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>105</v>
       </c>
@@ -14117,7 +14127,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>123</v>
       </c>
@@ -14131,7 +14141,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="581" spans="1:4">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>212</v>
       </c>
@@ -14145,7 +14155,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="582" spans="1:4">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>227</v>
       </c>
@@ -14159,7 +14169,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="583" spans="1:4">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>247</v>
       </c>
@@ -14173,7 +14183,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="584" spans="1:4">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>254</v>
       </c>
@@ -14187,7 +14197,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>257</v>
       </c>
@@ -14201,7 +14211,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>261</v>
       </c>
@@ -14215,7 +14225,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="587" spans="1:4">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>435</v>
       </c>
@@ -14229,7 +14239,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="588" spans="1:4">
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>538</v>
       </c>
@@ -14243,7 +14253,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="589" spans="1:4">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>119</v>
       </c>
@@ -14257,7 +14267,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="590" spans="1:4">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>249</v>
       </c>
@@ -14271,7 +14281,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="591" spans="1:4">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>250</v>
       </c>
@@ -14285,7 +14295,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="592" spans="1:4">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>251</v>
       </c>
@@ -14299,7 +14309,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="593" spans="1:4">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>541</v>
       </c>
@@ -14313,7 +14323,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="594" spans="1:4">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>792</v>
       </c>
@@ -14327,7 +14337,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="595" spans="1:4">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>12</v>
       </c>
@@ -14341,7 +14351,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="596" spans="1:4">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>23</v>
       </c>
@@ -14355,7 +14365,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="597" spans="1:4">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>45</v>
       </c>
@@ -14369,7 +14379,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="598" spans="1:4">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>230</v>
       </c>
@@ -14383,7 +14393,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="599" spans="1:4">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>25</v>
       </c>
@@ -14397,7 +14407,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="600" spans="1:4">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>31</v>
       </c>
@@ -14411,7 +14421,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="601" spans="1:4">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>53</v>
       </c>
@@ -14425,7 +14435,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="602" spans="1:4">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>248</v>
       </c>
@@ -14439,7 +14449,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="603" spans="1:4">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>252</v>
       </c>
@@ -14453,7 +14463,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="604" spans="1:4">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>626</v>
       </c>
@@ -14467,7 +14477,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="605" spans="1:4">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>46</v>
       </c>
@@ -14481,7 +14491,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="606" spans="1:4">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>235</v>
       </c>
@@ -14495,7 +14505,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="607" spans="1:4">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>523</v>
       </c>
@@ -14509,7 +14519,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="608" spans="1:4">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>577</v>
       </c>
@@ -14523,7 +14533,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="609" spans="1:4">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>729</v>
       </c>
@@ -14537,7 +14547,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="610" spans="1:4">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>29</v>
       </c>
@@ -14551,7 +14561,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="611" spans="1:4">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>54</v>
       </c>
@@ -14565,7 +14575,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="612" spans="1:4">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>57</v>
       </c>
@@ -14579,7 +14589,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="613" spans="1:4">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>471</v>
       </c>
@@ -14593,7 +14603,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="614" spans="1:4">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>472</v>
       </c>
@@ -14607,7 +14617,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="615" spans="1:4">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>578</v>
       </c>
@@ -14621,7 +14631,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="616" spans="1:4">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>2</v>
       </c>
@@ -14635,7 +14645,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="617" spans="1:4">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>22</v>
       </c>
@@ -14649,7 +14659,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="618" spans="1:4">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>55</v>
       </c>
@@ -14663,7 +14673,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="619" spans="1:4">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>60</v>
       </c>
@@ -14677,7 +14687,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="620" spans="1:4">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>63</v>
       </c>
@@ -14691,7 +14701,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="621" spans="1:4">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>86</v>
       </c>
@@ -14705,7 +14715,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="622" spans="1:4">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>90</v>
       </c>
@@ -14719,7 +14729,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="623" spans="1:4">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>112</v>
       </c>
@@ -14733,7 +14743,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="624" spans="1:4">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>209</v>
       </c>
@@ -14747,7 +14757,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="625" spans="1:4">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>268</v>
       </c>
@@ -14761,7 +14771,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="626" spans="1:4">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>271</v>
       </c>
@@ -14775,7 +14785,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="627" spans="1:4">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>273</v>
       </c>
@@ -14789,7 +14799,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="628" spans="1:4">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>429</v>
       </c>
@@ -14803,7 +14813,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="629" spans="1:4">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>453</v>
       </c>
@@ -14817,7 +14827,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="630" spans="1:4">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>520</v>
       </c>
@@ -14831,7 +14841,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="631" spans="1:4">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>725</v>
       </c>
@@ -14845,7 +14855,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="632" spans="1:4">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>730</v>
       </c>
@@ -14859,7 +14869,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="633" spans="1:4">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>39</v>
       </c>
@@ -14873,7 +14883,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="634" spans="1:4">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>301</v>
       </c>
@@ -14887,7 +14897,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="635" spans="1:4">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>58</v>
       </c>
@@ -14901,7 +14911,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="636" spans="1:4">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>111</v>
       </c>
@@ -14915,7 +14925,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="637" spans="1:4">
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>211</v>
       </c>
@@ -14929,7 +14939,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="638" spans="1:4">
+    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>500</v>
       </c>
@@ -14943,7 +14953,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="639" spans="1:4">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>524</v>
       </c>
@@ -14957,7 +14967,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="640" spans="1:4">
+    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>65</v>
       </c>
@@ -14971,7 +14981,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="641" spans="1:4">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>74</v>
       </c>
@@ -14985,7 +14995,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="642" spans="1:4">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>234</v>
       </c>
@@ -14999,7 +15009,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="643" spans="1:4">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>269</v>
       </c>
@@ -15013,7 +15023,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="644" spans="1:4">
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>270</v>
       </c>
@@ -15027,7 +15037,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="645" spans="1:4">
+    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>519</v>
       </c>
@@ -15041,7 +15051,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="646" spans="1:4">
+    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>521</v>
       </c>
@@ -15055,7 +15065,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="647" spans="1:4">
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>522</v>
       </c>
@@ -15069,7 +15079,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="648" spans="1:4">
+    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>668</v>
       </c>
@@ -15083,7 +15093,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="649" spans="1:4">
+    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>669</v>
       </c>
@@ -15097,7 +15107,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="650" spans="1:4">
+    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>670</v>
       </c>
@@ -15111,7 +15121,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="651" spans="1:4">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>671</v>
       </c>
@@ -15125,7 +15135,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="652" spans="1:4">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>672</v>
       </c>
@@ -15139,7 +15149,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="653" spans="1:4">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>673</v>
       </c>
@@ -15153,7 +15163,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="654" spans="1:4">
+    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>674</v>
       </c>
@@ -15167,7 +15177,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="655" spans="1:4">
+    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>675</v>
       </c>
@@ -15181,7 +15191,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="656" spans="1:4">
+    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>293</v>
       </c>
@@ -15195,7 +15205,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="657" spans="1:4">
+    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>300</v>
       </c>
@@ -15209,7 +15219,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="658" spans="1:4">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>409</v>
       </c>
@@ -15223,7 +15233,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="659" spans="1:4">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>444</v>
       </c>
@@ -15237,7 +15247,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="660" spans="1:4">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>445</v>
       </c>
@@ -15251,7 +15261,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="661" spans="1:4">
+    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>446</v>
       </c>
@@ -15265,7 +15275,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="662" spans="1:4">
+    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>447</v>
       </c>
@@ -15279,7 +15289,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="663" spans="1:4">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>451</v>
       </c>
@@ -15293,7 +15303,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="664" spans="1:4">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>452</v>
       </c>
@@ -15307,7 +15317,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="665" spans="1:4">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>474</v>
       </c>
@@ -15321,7 +15331,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="666" spans="1:4">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>475</v>
       </c>
@@ -15335,7 +15345,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="667" spans="1:4">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>175</v>
       </c>
@@ -15349,7 +15359,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="668" spans="1:4">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>176</v>
       </c>
@@ -15363,7 +15373,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="669" spans="1:4">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>361</v>
       </c>
@@ -15377,7 +15387,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="670" spans="1:4">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>707</v>
       </c>
@@ -15391,7 +15401,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="671" spans="1:4">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>708</v>
       </c>
@@ -15405,7 +15415,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="672" spans="1:4">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>709</v>
       </c>
@@ -15419,7 +15429,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="673" spans="1:4">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>710</v>
       </c>
@@ -15433,7 +15443,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="674" spans="1:4">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>711</v>
       </c>
@@ -15447,7 +15457,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="675" spans="1:4">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>713</v>
       </c>
@@ -15461,7 +15471,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="676" spans="1:4">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>715</v>
       </c>
@@ -15475,7 +15485,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>716</v>
       </c>
@@ -15489,7 +15499,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="678" spans="1:4">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>717</v>
       </c>
@@ -15503,7 +15513,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="679" spans="1:4">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>718</v>
       </c>
@@ -15517,7 +15527,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="680" spans="1:4">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>719</v>
       </c>
@@ -15531,7 +15541,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="681" spans="1:4">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>720</v>
       </c>
@@ -15545,7 +15555,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="682" spans="1:4">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>726</v>
       </c>
@@ -15559,7 +15569,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="683" spans="1:4">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>731</v>
       </c>
@@ -15573,7 +15583,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="684" spans="1:4">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>732</v>
       </c>
@@ -15587,7 +15597,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="685" spans="1:4">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>733</v>
       </c>
@@ -15601,7 +15611,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="686" spans="1:4">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>744</v>
       </c>
@@ -15615,7 +15625,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="687" spans="1:4">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>114</v>
       </c>
@@ -15629,7 +15639,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="688" spans="1:4">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>343</v>
       </c>
@@ -15643,7 +15653,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="689" spans="1:4">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>714</v>
       </c>
@@ -15657,7 +15667,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="690" spans="1:4">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>727</v>
       </c>
@@ -15671,7 +15681,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="691" spans="1:4">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>728</v>
       </c>
@@ -15685,7 +15695,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="692" spans="1:4">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>745</v>
       </c>
@@ -15699,7 +15709,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="693" spans="1:4">
+    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>138</v>
       </c>
@@ -15713,7 +15723,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="694" spans="1:4">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>515</v>
       </c>
@@ -15727,7 +15737,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="695" spans="1:4">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>4</v>
       </c>
@@ -15741,7 +15751,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="696" spans="1:4">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>5</v>
       </c>
@@ -15755,7 +15765,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="697" spans="1:4">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>21</v>
       </c>
@@ -15769,7 +15779,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="698" spans="1:4">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>37</v>
       </c>
@@ -15783,7 +15793,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="699" spans="1:4">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>52</v>
       </c>
@@ -15797,7 +15807,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="700" spans="1:4">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>72</v>
       </c>
@@ -15811,7 +15821,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="701" spans="1:4">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>88</v>
       </c>
@@ -15825,7 +15835,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="702" spans="1:4">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>89</v>
       </c>
@@ -15839,7 +15849,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="703" spans="1:4">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>93</v>
       </c>
@@ -15853,7 +15863,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="704" spans="1:4">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>95</v>
       </c>
@@ -15867,7 +15877,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="705" spans="1:4">
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>125</v>
       </c>
@@ -15881,7 +15891,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="706" spans="1:4">
+    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>126</v>
       </c>
@@ -15895,7 +15905,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="707" spans="1:4">
+    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>239</v>
       </c>
@@ -15909,7 +15919,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="708" spans="1:4">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>240</v>
       </c>
@@ -15923,7 +15933,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="709" spans="1:4">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>241</v>
       </c>
@@ -15937,7 +15947,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="710" spans="1:4">
+    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>242</v>
       </c>
@@ -15951,7 +15961,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="711" spans="1:4">
+    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>20</v>
       </c>
@@ -15965,7 +15975,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="712" spans="1:4">
+    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>43</v>
       </c>
@@ -15979,7 +15989,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="713" spans="1:4">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>49</v>
       </c>
@@ -15993,7 +16003,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="714" spans="1:4">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>120</v>
       </c>
@@ -16007,7 +16017,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="715" spans="1:4">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>134</v>
       </c>
@@ -16021,7 +16031,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="716" spans="1:4">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>528</v>
       </c>
@@ -16035,7 +16045,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="717" spans="1:4">
+    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>529</v>
       </c>
@@ -16049,7 +16059,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="718" spans="1:4">
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>539</v>
       </c>
@@ -16063,7 +16073,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="719" spans="1:4">
+    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>540</v>
       </c>
@@ -16077,7 +16087,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="720" spans="1:4">
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>11</v>
       </c>
@@ -16091,7 +16101,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="721" spans="1:4">
+    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>78</v>
       </c>
@@ -16105,7 +16115,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="722" spans="1:4">
+    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>79</v>
       </c>
@@ -16119,7 +16129,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="723" spans="1:4">
+    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>527</v>
       </c>
@@ -16133,7 +16143,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="724" spans="1:4">
+    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>32</v>
       </c>
@@ -16147,7 +16157,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="725" spans="1:4">
+    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>33</v>
       </c>
@@ -16161,7 +16171,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="726" spans="1:4">
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>10</v>
       </c>
@@ -16175,7 +16185,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="727" spans="1:4">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>42</v>
       </c>
@@ -16189,7 +16199,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="728" spans="1:4">
+    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>82</v>
       </c>
@@ -16203,7 +16213,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="729" spans="1:4">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>83</v>
       </c>
@@ -16217,7 +16227,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="730" spans="1:4">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>84</v>
       </c>
@@ -16231,7 +16241,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="731" spans="1:4">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>131</v>
       </c>
@@ -16245,7 +16255,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="732" spans="1:4">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>135</v>
       </c>
@@ -16259,7 +16269,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="733" spans="1:4">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>139</v>
       </c>
@@ -16273,7 +16283,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="734" spans="1:4">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>267</v>
       </c>
@@ -16287,7 +16297,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="735" spans="1:4">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>526</v>
       </c>
@@ -16301,7 +16311,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="736" spans="1:4">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>87</v>
       </c>
@@ -16315,7 +16325,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="737" spans="1:4">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>101</v>
       </c>
@@ -16329,7 +16339,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="738" spans="1:4">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>121</v>
       </c>
@@ -16343,7 +16353,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="739" spans="1:4">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>206</v>
       </c>
@@ -16357,7 +16367,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="740" spans="1:4">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>228</v>
       </c>
@@ -16371,7 +16381,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="741" spans="1:4">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>229</v>
       </c>
@@ -16385,7 +16395,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="742" spans="1:4">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>231</v>
       </c>
@@ -16399,7 +16409,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="743" spans="1:4">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>255</v>
       </c>
@@ -16413,7 +16423,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="744" spans="1:4">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>256</v>
       </c>
@@ -16427,7 +16437,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="745" spans="1:4">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>266</v>
       </c>
@@ -16441,7 +16451,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="746" spans="1:4">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>531</v>
       </c>
@@ -16455,7 +16465,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="747" spans="1:4">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>533</v>
       </c>
@@ -16469,7 +16479,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="748" spans="1:4">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>712</v>
       </c>
@@ -16483,7 +16493,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="749" spans="1:4">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>781</v>
       </c>
@@ -16497,7 +16507,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="750" spans="1:4">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>782</v>
       </c>
@@ -16511,7 +16521,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="751" spans="1:4">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>102</v>
       </c>
@@ -16525,7 +16535,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="752" spans="1:4">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>232</v>
       </c>
@@ -16539,7 +16549,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="753" spans="1:4">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>264</v>
       </c>
@@ -16553,7 +16563,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="754" spans="1:4">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>746</v>
       </c>
@@ -16567,7 +16577,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="755" spans="1:4">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>226</v>
       </c>
@@ -16581,7 +16591,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="756" spans="1:4">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>35</v>
       </c>
@@ -16595,7 +16605,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="757" spans="1:4">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>107</v>
       </c>
@@ -16609,7 +16619,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="758" spans="1:4">
+    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>132</v>
       </c>
@@ -16623,7 +16633,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="759" spans="1:4">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>36</v>
       </c>
@@ -16637,7 +16647,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="760" spans="1:4">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>85</v>
       </c>
@@ -16651,7 +16661,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="761" spans="1:4">
+    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
         <v>133</v>
       </c>
@@ -16665,7 +16675,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="762" spans="1:4">
+    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
         <v>34</v>
       </c>
@@ -16679,7 +16689,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="763" spans="1:4">
+    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
         <v>47</v>
       </c>
@@ -16693,7 +16703,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="764" spans="1:4">
+    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
         <v>536</v>
       </c>
@@ -16707,7 +16717,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="765" spans="1:4">
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
         <v>537</v>
       </c>
@@ -16721,7 +16731,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="766" spans="1:4">
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
         <v>94</v>
       </c>
@@ -16735,7 +16745,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="767" spans="1:4">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
         <v>99</v>
       </c>
@@ -16749,7 +16759,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="768" spans="1:4">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
         <v>258</v>
       </c>
@@ -16763,7 +16773,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="769" spans="1:4">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
         <v>532</v>
       </c>
@@ -16777,7 +16787,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="770" spans="1:4">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
         <v>501</v>
       </c>
@@ -16791,7 +16801,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="771" spans="1:4">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
         <v>44</v>
       </c>
@@ -16805,7 +16815,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="772" spans="1:4">
+    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
         <v>503</v>
       </c>
@@ -16819,7 +16829,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="773" spans="1:4">
+    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
         <v>3</v>
       </c>
@@ -16833,7 +16843,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="774" spans="1:4">
+    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
         <v>19</v>
       </c>
@@ -16847,7 +16857,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="775" spans="1:4">
+    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
         <v>208</v>
       </c>
@@ -16861,7 +16871,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="776" spans="1:4">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
         <v>433</v>
       </c>
@@ -16875,7 +16885,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="777" spans="1:4">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
         <v>436</v>
       </c>
@@ -16889,7 +16899,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="778" spans="1:4">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
         <v>555</v>
       </c>
@@ -16903,7 +16913,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="779" spans="1:4">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>27</v>
       </c>
@@ -16917,7 +16927,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="780" spans="1:4">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>71</v>
       </c>
@@ -16931,7 +16941,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="781" spans="1:4">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>238</v>
       </c>
@@ -16945,7 +16955,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="782" spans="1:4">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>253</v>
       </c>
@@ -16959,7 +16969,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="783" spans="1:4">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>530</v>
       </c>
@@ -16973,7 +16983,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="784" spans="1:4">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>70</v>
       </c>
@@ -16987,7 +16997,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="785" spans="1:4">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>493</v>
       </c>
@@ -17001,7 +17011,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="786" spans="1:4">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>110</v>
       </c>
@@ -17015,7 +17025,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="787" spans="1:4">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>122</v>
       </c>
@@ -17029,7 +17039,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="788" spans="1:4">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>124</v>
       </c>
@@ -17043,7 +17053,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="789" spans="1:4">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>309</v>
       </c>
@@ -17057,7 +17067,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="790" spans="1:4">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>28</v>
       </c>
@@ -17071,7 +17081,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="791" spans="1:4">
+    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
         <v>68</v>
       </c>
@@ -17085,7 +17095,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="792" spans="1:4">
+    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
         <v>59</v>
       </c>
@@ -17099,7 +17109,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="793" spans="1:4">
+    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
         <v>108</v>
       </c>
@@ -17113,7 +17123,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="794" spans="1:4">
+    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
         <v>117</v>
       </c>
@@ -17127,7 +17137,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="795" spans="1:4">
+    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
         <v>233</v>
       </c>
@@ -17141,7 +17151,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="796" spans="1:4">
+    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
         <v>265</v>
       </c>
@@ -17155,7 +17165,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="797" spans="1:4">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
         <v>109</v>
       </c>
@@ -17185,31 +17195,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E62B3CC-B83B-4356-A62A-0D8B90F84DAA}">
-  <dimension ref="F4:H158"/>
+  <dimension ref="F1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M145" sqref="M145"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="6:8">
+    <row r="1" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F4" s="4" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="5" spans="6:8">
+    <row r="5" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="6:8">
+    <row r="6" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F6" s="4" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="7" spans="6:8">
+    <row r="7" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F7" s="4" t="s">
         <v>1742</v>
       </c>
@@ -17220,7 +17242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="6:8">
+    <row r="8" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
         <v>1743</v>
       </c>
@@ -17231,15 +17253,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F10" s="4" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F11" s="4" t="s">
         <v>1745</v>
       </c>
@@ -17250,7 +17272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F12" s="4" t="s">
         <v>1746</v>
       </c>
@@ -17261,15 +17283,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="6:8">
+    <row r="13" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="6:8">
+    <row r="14" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F14" s="4" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="15" spans="6:8">
+    <row r="15" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F15" s="4" t="s">
         <v>1748</v>
       </c>
@@ -17280,7 +17302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="6:8">
+    <row r="16" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F16" s="4" t="s">
         <v>1749</v>
       </c>
@@ -17291,15 +17313,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="6:8">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:8">
+    <row r="18" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F18" s="4" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="19" spans="6:8">
+    <row r="19" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F19" s="4" t="s">
         <v>1751</v>
       </c>
@@ -17310,7 +17332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="6:8">
+    <row r="20" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F20" s="4" t="s">
         <v>1752</v>
       </c>
@@ -17321,15 +17343,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="6:8">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="6:8">
+    <row r="22" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F22" s="4" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="23" spans="6:8">
+    <row r="23" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F23" s="4" t="s">
         <v>1754</v>
       </c>
@@ -17340,7 +17362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="6:8">
+    <row r="24" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F24" s="4" t="s">
         <v>1755</v>
       </c>
@@ -17351,15 +17373,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="6:8">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="6:8">
+    <row r="26" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F26" s="4" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="27" spans="6:8">
+    <row r="27" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F27" s="4" t="s">
         <v>1757</v>
       </c>
@@ -17370,7 +17392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="6:8">
+    <row r="28" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F28" s="4" t="s">
         <v>1758</v>
       </c>
@@ -17381,7 +17403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="6:8">
+    <row r="29" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F29" s="4" t="s">
         <v>1759</v>
       </c>
@@ -17392,15 +17414,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="6:8">
+    <row r="30" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="6:8">
+    <row r="31" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F31" s="4" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="32" spans="6:8">
+    <row r="32" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F32" s="4" t="s">
         <v>1761</v>
       </c>
@@ -17411,7 +17433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="6:8">
+    <row r="33" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F33" s="4" t="s">
         <v>1762</v>
       </c>
@@ -17422,15 +17444,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="6:8">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="6:8">
+    <row r="35" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F35" s="4" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="36" spans="6:8">
+    <row r="36" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F36" s="4" t="s">
         <v>1764</v>
       </c>
@@ -17441,7 +17463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="6:8">
+    <row r="37" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F37" s="4" t="s">
         <v>1765</v>
       </c>
@@ -17452,15 +17474,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="6:8">
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="6:8">
+    <row r="39" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F39" s="4" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="40" spans="6:8">
+    <row r="40" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F40" s="4" t="s">
         <v>1767</v>
       </c>
@@ -17471,7 +17493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="6:8">
+    <row r="41" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F41" s="4" t="s">
         <v>1768</v>
       </c>
@@ -17482,15 +17504,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="6:8">
+    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="6:8">
+    <row r="43" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F43" s="4" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="44" spans="6:8">
+    <row r="44" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F44" s="4" t="s">
         <v>1770</v>
       </c>
@@ -17501,7 +17523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:8">
+    <row r="45" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F45" s="4" t="s">
         <v>1771</v>
       </c>
@@ -17512,23 +17534,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="6:8">
+    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="6:8">
+    <row r="47" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F47" s="4" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="48" spans="6:8">
+    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="6:8">
+    <row r="49" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F49" s="4" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="50" spans="6:8">
+    <row r="50" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F50" s="4" t="s">
         <v>1774</v>
       </c>
@@ -17539,7 +17561,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="6:8">
+    <row r="51" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F51" s="4" t="s">
         <v>1775</v>
       </c>
@@ -17550,15 +17572,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="6:8">
+    <row r="52" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="6:8">
+    <row r="53" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F53" s="4" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="54" spans="6:8">
+    <row r="54" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F54" s="4" t="s">
         <v>1777</v>
       </c>
@@ -17569,7 +17591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="6:8">
+    <row r="55" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F55" s="4" t="s">
         <v>1778</v>
       </c>
@@ -17580,7 +17602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="6:8">
+    <row r="56" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F56" s="4" t="s">
         <v>1779</v>
       </c>
@@ -17591,7 +17613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="6:8">
+    <row r="57" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F57" s="4" t="s">
         <v>1780</v>
       </c>
@@ -17602,7 +17624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="6:8">
+    <row r="58" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F58" s="4" t="s">
         <v>1781</v>
       </c>
@@ -17613,15 +17635,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="6:8">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="6:8">
+    <row r="60" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F60" s="4" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="61" spans="6:8">
+    <row r="61" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F61" s="4" t="s">
         <v>1783</v>
       </c>
@@ -17632,7 +17654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="6:8">
+    <row r="62" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F62" s="4" t="s">
         <v>1784</v>
       </c>
@@ -17643,7 +17665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="6:8">
+    <row r="63" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F63" s="4" t="s">
         <v>1785</v>
       </c>
@@ -17654,15 +17676,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="6:8">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="6:8">
+    <row r="65" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F65" s="4" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="66" spans="6:8">
+    <row r="66" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F66" s="4" t="s">
         <v>1787</v>
       </c>
@@ -17673,7 +17695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="6:8">
+    <row r="67" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F67" s="4" t="s">
         <v>1788</v>
       </c>
@@ -17684,7 +17706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="6:8">
+    <row r="68" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F68" s="4" t="s">
         <v>1789</v>
       </c>
@@ -17695,15 +17717,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="6:8">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="6:8">
+    <row r="70" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F70" s="4" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="71" spans="6:8">
+    <row r="71" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F71" s="4" t="s">
         <v>1791</v>
       </c>
@@ -17714,7 +17736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="6:8">
+    <row r="72" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F72" s="4" t="s">
         <v>1792</v>
       </c>
@@ -17725,7 +17747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="6:8">
+    <row r="73" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F73" s="4" t="s">
         <v>1793</v>
       </c>
@@ -17736,15 +17758,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="6:8">
+    <row r="74" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="6:8">
+    <row r="75" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F75" s="4" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="76" spans="6:8">
+    <row r="76" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F76" s="4" t="s">
         <v>1795</v>
       </c>
@@ -17755,7 +17777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="6:8">
+    <row r="77" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F77" s="4" t="s">
         <v>1796</v>
       </c>
@@ -17766,23 +17788,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="6:8">
+    <row r="78" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="6:8">
+    <row r="79" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F79" s="4" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="80" spans="6:8">
+    <row r="80" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="6:8">
+    <row r="81" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F81" s="4" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="82" spans="6:8">
+    <row r="82" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F82" s="4" t="s">
         <v>1799</v>
       </c>
@@ -17793,7 +17815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8">
+    <row r="83" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F83" s="4" t="s">
         <v>1800</v>
       </c>
@@ -17804,15 +17826,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="6:8">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="6:8">
+    <row r="85" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F85" s="4" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="86" spans="6:8">
+    <row r="86" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F86" s="4" t="s">
         <v>1802</v>
       </c>
@@ -17823,7 +17845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="6:8">
+    <row r="87" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F87" s="4" t="s">
         <v>1803</v>
       </c>
@@ -17834,15 +17856,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="6:8">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="6:8">
+    <row r="89" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F89" s="4" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="90" spans="6:8">
+    <row r="90" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F90" s="4" t="s">
         <v>1805</v>
       </c>
@@ -17853,7 +17875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="6:8">
+    <row r="91" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F91" s="4" t="s">
         <v>1806</v>
       </c>
@@ -17864,15 +17886,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="6:8">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="6:8">
+    <row r="93" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F93" s="4" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="94" spans="6:8">
+    <row r="94" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F94" s="4" t="s">
         <v>1808</v>
       </c>
@@ -17883,20 +17905,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="6:8">
+    <row r="95" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F95" s="5" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="96" spans="6:8">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="6:8">
+    <row r="97" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F97" s="4" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="98" spans="6:8">
+    <row r="98" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F98" s="4" t="s">
         <v>1811</v>
       </c>
@@ -17907,7 +17929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="6:8">
+    <row r="99" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F99" s="4" t="s">
         <v>1812</v>
       </c>
@@ -17918,20 +17940,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="6:8">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="6:8">
+    <row r="101" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F101" s="4" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="102" spans="6:8">
+    <row r="102" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F102" s="5" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="103" spans="6:8">
+    <row r="103" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F103" s="4" t="s">
         <v>1815</v>
       </c>
@@ -17942,23 +17964,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="6:8">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="6:8">
+    <row r="105" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F105" s="4" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="106" spans="6:8">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="6:8">
+    <row r="107" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F107" s="4" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="108" spans="6:8">
+    <row r="108" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F108" s="4" t="s">
         <v>1818</v>
       </c>
@@ -17969,7 +17991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="6:8">
+    <row r="109" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F109" s="4" t="s">
         <v>1819</v>
       </c>
@@ -17980,15 +18002,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="6:8">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="6:8">
+    <row r="111" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F111" s="4" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="112" spans="6:8">
+    <row r="112" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F112" s="4" t="s">
         <v>1821</v>
       </c>
@@ -17999,7 +18021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="6:8">
+    <row r="113" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F113" s="4" t="s">
         <v>1822</v>
       </c>
@@ -18010,15 +18032,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="6:8">
+    <row r="114" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="6:8">
+    <row r="115" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F115" s="4" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="116" spans="6:8">
+    <row r="116" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F116" s="4" t="s">
         <v>1824</v>
       </c>
@@ -18029,7 +18051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="6:8">
+    <row r="117" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F117" s="4" t="s">
         <v>1825</v>
       </c>
@@ -18040,7 +18062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="6:8">
+    <row r="118" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F118" s="4" t="s">
         <v>1826</v>
       </c>
@@ -18051,15 +18073,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="6:8">
+    <row r="119" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="6:8">
+    <row r="120" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F120" s="4" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="121" spans="6:8">
+    <row r="121" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F121" s="4" t="s">
         <v>1828</v>
       </c>
@@ -18070,7 +18092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="6:8">
+    <row r="122" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F122" s="4" t="s">
         <v>1829</v>
       </c>
@@ -18081,15 +18103,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="6:8">
+    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="6:8">
+    <row r="124" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F124" s="4" t="s">
         <v>1830</v>
       </c>
     </row>
-    <row r="125" spans="6:8">
+    <row r="125" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F125" s="4" t="s">
         <v>1831</v>
       </c>
@@ -18100,7 +18122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="6:8">
+    <row r="126" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F126" s="4" t="s">
         <v>1832</v>
       </c>
@@ -18111,15 +18133,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="6:8">
+    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="6:8">
+    <row r="128" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F128" s="4" t="s">
         <v>1833</v>
       </c>
     </row>
-    <row r="129" spans="6:8">
+    <row r="129" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F129" s="4" t="s">
         <v>1834</v>
       </c>
@@ -18130,7 +18152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="6:8">
+    <row r="130" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F130" s="4" t="s">
         <v>1835</v>
       </c>
@@ -18141,15 +18163,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="6:8">
+    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="6:8">
+    <row r="132" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F132" s="4" t="s">
         <v>1836</v>
       </c>
     </row>
-    <row r="133" spans="6:8">
+    <row r="133" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F133" s="4" t="s">
         <v>1837</v>
       </c>
@@ -18160,7 +18182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="6:8">
+    <row r="134" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F134" s="4" t="s">
         <v>1838</v>
       </c>
@@ -18171,10 +18193,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="6:8">
+    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="6:8">
+    <row r="136" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F136" s="4" t="s">
         <v>1839</v>
       </c>
@@ -18185,23 +18207,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="6:8">
+    <row r="137" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="6:8">
+    <row r="138" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F138" s="4" t="s">
         <v>1840</v>
       </c>
     </row>
-    <row r="139" spans="6:8">
+    <row r="139" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="6:8">
+    <row r="140" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F140" s="4" t="s">
         <v>1841</v>
       </c>
     </row>
-    <row r="141" spans="6:8">
+    <row r="141" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F141" s="4" t="s">
         <v>1842</v>
       </c>
@@ -18212,7 +18234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="6:8">
+    <row r="142" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F142" s="4" t="s">
         <v>1843</v>
       </c>
@@ -18223,15 +18245,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="6:8">
+    <row r="143" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="6:8">
+    <row r="144" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F144" s="4" t="s">
         <v>1844</v>
       </c>
     </row>
-    <row r="145" spans="6:8">
+    <row r="145" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F145" s="4" t="s">
         <v>1845</v>
       </c>
@@ -18242,7 +18264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="6:8">
+    <row r="146" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F146" s="4" t="s">
         <v>1846</v>
       </c>
@@ -18253,15 +18275,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="6:8">
+    <row r="147" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="6:8">
+    <row r="148" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F148" s="4" t="s">
         <v>1847</v>
       </c>
     </row>
-    <row r="149" spans="6:8">
+    <row r="149" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F149" s="4" t="s">
         <v>1848</v>
       </c>
@@ -18272,7 +18294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="6:8">
+    <row r="150" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F150" s="4" t="s">
         <v>1849</v>
       </c>
@@ -18283,10 +18305,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="6:8">
+    <row r="151" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="6:8">
+    <row r="152" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F152" s="4" t="s">
         <v>1850</v>
       </c>
@@ -18297,15 +18319,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="6:8">
+    <row r="153" spans="6:8" x14ac:dyDescent="0.2">
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="6:8">
+    <row r="154" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F154" s="4" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="155" spans="6:8">
+    <row r="155" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F155" s="4" t="s">
         <v>1852</v>
       </c>
@@ -18316,7 +18338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="6:8">
+    <row r="156" spans="6:8" ht="16" x14ac:dyDescent="0.2">
       <c r="F156" s="4" t="s">
         <v>1853</v>
       </c>
@@ -18327,7 +18349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="6:8">
+    <row r="158" spans="6:8" x14ac:dyDescent="0.2">
       <c r="H158">
         <f>SUM(H7:H157)</f>
         <v>796</v>
